--- a/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
+++ b/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
@@ -62477,7 +62477,9 @@
       <c r="P1170" t="n">
         <v>0</v>
       </c>
-      <c r="Q1170" t="inlineStr"/>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
+++ b/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
@@ -66045,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
+++ b/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1171"/>
+  <dimension ref="A1:R1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66049,6 +66049,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>76.41000366210938</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>84.19000244140625</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>71.70999908447266</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>79.27999877929688</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>79.27999877929688</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>46423890</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>79.65000152587891</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>75.62000274658203</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>75.62000274658203</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>32790088</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
+++ b/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1173"/>
+  <dimension ref="A1:R1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -65981,7 +65981,7 @@
         <v>23</v>
       </c>
       <c r="O1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1170" t="n">
         <v>0</v>
@@ -66093,7 +66093,7 @@
         <v>25</v>
       </c>
       <c r="O1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1172" t="n">
         <v>0</v>
@@ -66101,7 +66101,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66155,7 +66157,1829 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>75.98999786376953</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>76.61000061035156</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>70.70999908447266</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>72.41999816894531</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>26415428</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>72.84999847412109</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>79.58999633789062</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>69.69000244140625</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>74.95999908447266</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>46254726</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>75.69000244140625</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>69.12999725341797</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>70.12999725341797</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>27490061</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>69.55000305175781</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>66.83999633789062</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>75.16999816894531</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>42330435</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>75.98000335693359</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>68.05000305175781</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>70.01999664306641</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>36076656</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>63.95000076293945</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>68.81999969482422</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>20383781</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>68.56999969482422</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>69.44999694824219</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>64.76000213623047</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>66.87000274658203</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>10438403</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>66.02999877929688</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>74.26999664306641</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>46142895</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>70.73000335693359</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>26782833</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>70.80000305175781</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>72.51000213623047</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>68.91999816894531</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>15014529</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>69.29000091552734</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>71.91000366210938</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>67.09999847412109</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>69.11000061035156</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>16651143</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>69.44999694824219</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>71.79000091552734</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>64.47000122070312</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>66.27999877929688</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>15494994</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>66.31999969482422</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>67.86000061035156</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>65.15000152587891</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>65.51000213623047</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>7682733</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>65.19999694824219</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>66.63999938964844</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>62.79000091552734</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>63.4900016784668</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>9533839</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>64.48999786376953</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>59.79999923706055</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>63.52000045776367</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>13206113</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>63.79999923706055</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>62.02000045776367</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>10676125</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>62.09999847412109</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>62.54000091552734</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>54.59999847412109</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>12777662</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>52.02999877929688</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>66.98000335693359</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>36709844</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>66.73999786376953</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>71.69999694824219</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>62.7400016784668</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>68.58000183105469</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>28541161</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>64.16000366210938</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>64.65000152587891</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>14136159</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>64.80999755859375</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>67.73999786376953</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>62.65000152587891</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>65.55000305175781</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>16654407</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>74.29000091552734</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>66.11000061035156</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>72.23000335693359</v>
+      </c>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="n">
+        <v>37291555</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>77</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>76.61000061035156</v>
+      </c>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="n">
+        <v>37800736</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>76.47000122070312</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>80.86000061035156</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>71.16999816894531</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>77.13999938964844</v>
+      </c>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="n">
+        <v>72103608</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>68.94000244140625</v>
+      </c>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="n">
+        <v>30988653</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>69.40000152587891</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>66.80000305175781</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>68.73999786376953</v>
+      </c>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="n">
+        <v>15156800</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>68.90000152587891</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>75.90000152587891</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>66.65000152587891</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>73.15000152587891</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>25054690</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>73.15000152587891</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>78.80000305175781</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>70.88999938964844</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>73.93000030517578</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>50345946</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>76.23999786376953</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>26629890</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>76.44999694824219</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>83.40000152587891</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>73.01000213623047</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>44333255</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>72.41999816894531</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>74.23999786376953</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>70.66000366210938</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>27451338</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>68.91000366210938</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>72.65000152587891</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>69.12000274658203</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>12451564</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>69.63999938964844</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>60.45000076293945</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>61.27000045776367</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>17265987</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>60.09999847412109</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>64.69999694824219</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>58.0099983215332</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>61.20999908447266</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>15920585</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>60.4900016784668</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>62.18999862670898</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>54.43999862670898</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>55.22999954223633</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>11104937</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
+++ b/stock_historical_data/1wk/JISLJALEQS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1208"/>
+  <dimension ref="A1:R1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66211,7 +66211,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66263,7 +66265,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66315,7 +66319,9 @@
       <c r="Q1176" t="n">
         <v>1</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66367,7 +66373,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66419,7 +66427,9 @@
       <c r="Q1178" t="n">
         <v>2</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66471,7 +66481,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66523,7 +66535,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66575,7 +66589,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66627,7 +66643,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66679,7 +66697,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66731,7 +66751,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66783,7 +66805,9 @@
       <c r="Q1185" t="n">
         <v>1</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66835,7 +66859,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66887,7 +66913,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66939,7 +66967,9 @@
       <c r="Q1188" t="n">
         <v>2</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -66991,7 +67021,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67043,7 +67075,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67095,7 +67129,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67147,7 +67183,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67199,7 +67237,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67251,7 +67291,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67303,7 +67345,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67355,7 +67399,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67407,7 +67453,9 @@
       <c r="Q1197" t="n">
         <v>1</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67459,7 +67507,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67511,7 +67561,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67563,7 +67615,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67615,7 +67669,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67667,7 +67723,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67719,7 +67777,9 @@
       <c r="Q1203" t="n">
         <v>2</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67771,7 +67831,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67823,7 +67885,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67875,7 +67939,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -67927,7 +67993,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -67979,7 +68047,217 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>55.40000152587891</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>63.83000183105469</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>53.02000045776367</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>61.84000015258789</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>17487158</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>61.84000015258789</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>55.40999984741211</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>15865353</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>56.11000061035156</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>55.45999908447266</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>13563915</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>56.56000137329102</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>57.40000152587891</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>24994383</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
